--- a/Data/slot_reader_source.xlsx
+++ b/Data/slot_reader_source.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMartyniuk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Mobile\SlotReader\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="5" r:id="rId1"/>
-    <sheet name="1" sheetId="1" r:id="rId2"/>
-    <sheet name="3" sheetId="2" r:id="rId3"/>
-    <sheet name="4" sheetId="3" r:id="rId4"/>
-    <sheet name="5" sheetId="4" r:id="rId5"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="2" r:id="rId2"/>
+    <sheet name="4" sheetId="3" r:id="rId3"/>
+    <sheet name="5" sheetId="4" r:id="rId4"/>
+    <sheet name="0" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -15144,3291 +15144,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>3630</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>3631</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3632</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>3633</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>3634</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>3635</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>3636</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>3637</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>3638</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>3639</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>2012</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>2112</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>3194</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>3195</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>3388</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>2013</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>2113</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>3196</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>3197</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>3390</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>3391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>2014</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>2114</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>3198</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>3199</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>3392</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>2015</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>2115</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>3200</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>3201</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>3394</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>3395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>2016</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>2116</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>3202</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>3203</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>3202</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>2017</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>2117</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>3204</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>3205</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>3397</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>3398</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>2018</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>3206</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>3207</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>3206</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>2119</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>3208</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>3209</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>3208</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>2020</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>3210</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>2854</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>3401</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>2021</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>2121</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>3211</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>3212</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>3403</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>3404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>2022</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>2122</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>3213</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>3214</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>3405</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>2023</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>2123</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>3215</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>3216</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>3407</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>3408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>2024</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>2124</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>3217</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>3218</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>3409</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>3410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>2025</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>2125</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>3219</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>3220</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>3219</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>2026</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>2126</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>3221</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>3222</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>3221</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>3412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>2027</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>3223</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>3224</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>3223</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>3413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>2028</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>2128</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>3225</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>3226</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>3414</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>3415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>2029</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>2129</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>3227</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>3228</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>3416</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>189</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>2130</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>3229</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>3230</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>3418</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>3419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>2031</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>2131</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>3231</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>3232</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>3420</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>3421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>2032</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>2132</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>3233</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>3234</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>3422</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>2033</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>2133</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>3235</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>3236</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>3424</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>3425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>2034</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>2134</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>3237</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>3238</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>3426</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>2035</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>2135</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>3239</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>2195</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>3428</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>3429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>2036</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>2136</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>3240</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>3241</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>3430</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>968</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>2037</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>2137</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>3242</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>3243</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>3242</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>2038</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>2138</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>3244</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>3245</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>3433</v>
-      </c>
-      <c r="J28" s="18" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>2039</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>2139</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>3246</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>3247</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>3246</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>3434</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>2040</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>2140</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>3248</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>3249</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>3435</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>2141</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>3250</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>3251</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>3437</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>2042</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>2142</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>3252</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>3253</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>3252</v>
-      </c>
-      <c r="J32" s="18" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>974</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>2043</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>2143</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>3254</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>3255</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>3439</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>3440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>2044</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>2144</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>3256</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>3257</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>3441</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>2045</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>2145</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>3258</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>3259</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>3443</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>2046</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>2146</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>3260</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>3261</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>3260</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>3445</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>2047</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>2147</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>3262</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>3446</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C38" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>2048</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>2148</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>3264</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>3265</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>3448</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="C39" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>2049</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>2149</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>3266</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>3267</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>3266</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>2050</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>2150</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>3268</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>3269</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>3451</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="C41" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>2151</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>3270</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>3271</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>3453</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="C42" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>2052</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>2152</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>3272</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>3273</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>3455</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>2053</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>2153</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>3274</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>3275</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>3274</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>2054</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>2154</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>3276</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>3277</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>3458</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="C45" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>2055</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>2155</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>3278</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>3279</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>3460</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>2156</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>3280</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>3281</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>3280</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>2057</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>2157</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>3282</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>3283</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>3463</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>2058</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>2158</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>3284</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>3285</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>3284</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>2159</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>3286</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>3466</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>2160</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>3288</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>3289</v>
-      </c>
-      <c r="I50" s="18" t="s">
-        <v>3468</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>2161</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>3290</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>3291</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>3290</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="C52" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>2162</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>3292</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>3293</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>3471</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>3472</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="C53" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>2063</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>2163</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>3294</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>3295</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>3473</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>3474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>2064</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>2164</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>3296</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>3297</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>3475</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="C55" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>2065</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>2165</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>3298</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>3299</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>3477</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>2066</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>2166</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>3300</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>3301</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>3479</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="C57" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>2067</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>2167</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>3302</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>3303</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>3481</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="C58" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>2168</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>3304</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>3305</v>
-      </c>
-      <c r="I58" s="18" t="s">
-        <v>3483</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>3484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>2069</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>2169</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>3306</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>3307</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>3485</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>2170</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>3308</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>3309</v>
-      </c>
-      <c r="I60" s="18" t="s">
-        <v>3487</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>3488</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>2171</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>3310</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>3311</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>3489</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>2072</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>2172</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>3312</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>3313</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>3491</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>3492</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>2173</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>3314</v>
-      </c>
-      <c r="H63" s="18" t="s">
-        <v>3315</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>3493</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>2074</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>2174</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>3316</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>3317</v>
-      </c>
-      <c r="I64" s="18" t="s">
-        <v>3316</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>2175</v>
-      </c>
-      <c r="G65" s="18" t="s">
-        <v>3318</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>3319</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>3318</v>
-      </c>
-      <c r="J65" s="18" t="s">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>2076</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>2176</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>3320</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>3321</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>3497</v>
-      </c>
-      <c r="J66" s="18" t="s">
-        <v>3498</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>2177</v>
-      </c>
-      <c r="G67" s="18" t="s">
-        <v>3322</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>3323</v>
-      </c>
-      <c r="I67" s="18" t="s">
-        <v>3499</v>
-      </c>
-      <c r="J67" s="18" t="s">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>2178</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>3324</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>3325</v>
-      </c>
-      <c r="I68" s="18" t="s">
-        <v>3324</v>
-      </c>
-      <c r="J68" s="18" t="s">
-        <v>3501</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>2079</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>2179</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>3326</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>3327</v>
-      </c>
-      <c r="I69" s="18" t="s">
-        <v>3326</v>
-      </c>
-      <c r="J69" s="18" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="E70" s="14" t="s">
-        <v>2080</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>2180</v>
-      </c>
-      <c r="G70" s="18" t="s">
-        <v>3328</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>3329</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>3502</v>
-      </c>
-      <c r="J70" s="18" t="s">
-        <v>3503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C71" s="46" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>2181</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>3330</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>3504</v>
-      </c>
-      <c r="J71" s="18" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E72" s="14" t="s">
-        <v>2082</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>2182</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>3332</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>3333</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>3505</v>
-      </c>
-      <c r="J72" s="18" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C73" s="46" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>2183</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>3334</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>3335</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>3507</v>
-      </c>
-      <c r="J73" s="18" t="s">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C74" s="46" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>2084</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>2184</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>3336</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>3337</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>3509</v>
-      </c>
-      <c r="J74" s="18" t="s">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>2085</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>2185</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>3338</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>3339</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>3511</v>
-      </c>
-      <c r="J75" s="18" t="s">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>2086</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>2186</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>3340</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>3341</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>3513</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>3092</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C77" s="46" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>2187</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>3342</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>3343</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>3514</v>
-      </c>
-      <c r="J77" s="18" t="s">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C78" s="46" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>2188</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>3344</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>3345</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>3516</v>
-      </c>
-      <c r="J78" s="18" t="s">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C79" s="46" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>2089</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>2189</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>3346</v>
-      </c>
-      <c r="H79" s="18" t="s">
-        <v>3347</v>
-      </c>
-      <c r="I79" s="18" t="s">
-        <v>3518</v>
-      </c>
-      <c r="J79" s="18" t="s">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C80" s="46" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>2190</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>3348</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>3349</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>3520</v>
-      </c>
-      <c r="J80" s="18" t="s">
-        <v>3521</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C81" s="46" t="s">
-        <v>1467</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>2091</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>2191</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>3350</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>3351</v>
-      </c>
-      <c r="I81" s="18" t="s">
-        <v>3522</v>
-      </c>
-      <c r="J81" s="18" t="s">
-        <v>3523</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C82" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>2192</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>3352</v>
-      </c>
-      <c r="H82" s="18" t="s">
-        <v>3353</v>
-      </c>
-      <c r="I82" s="18" t="s">
-        <v>3524</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C83" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>2193</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>3354</v>
-      </c>
-      <c r="H83" s="18" t="s">
-        <v>3355</v>
-      </c>
-      <c r="I83" s="18" t="s">
-        <v>3526</v>
-      </c>
-      <c r="J83" s="18" t="s">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C84" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>2094</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>2194</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>3356</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>3357</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>3528</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C85" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>2195</v>
-      </c>
-      <c r="G85" s="18" t="s">
-        <v>3599</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>3358</v>
-      </c>
-      <c r="I85" s="18" t="s">
-        <v>3530</v>
-      </c>
-      <c r="J85" s="18" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C86" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>2196</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H86" s="18" t="s">
-        <v>3359</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>3532</v>
-      </c>
-      <c r="J86" s="18" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C87" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>2097</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>2197</v>
-      </c>
-      <c r="G87" s="18" t="s">
-        <v>3360</v>
-      </c>
-      <c r="H87" s="18" t="s">
-        <v>3361</v>
-      </c>
-      <c r="I87" s="18" t="s">
-        <v>3534</v>
-      </c>
-      <c r="J87" s="18" t="s">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>2098</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>2198</v>
-      </c>
-      <c r="G88" s="18" t="s">
-        <v>3362</v>
-      </c>
-      <c r="H88" s="18" t="s">
-        <v>3363</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>3536</v>
-      </c>
-      <c r="J88" s="18" t="s">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C89" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>2099</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>2199</v>
-      </c>
-      <c r="G89" s="18" t="s">
-        <v>3364</v>
-      </c>
-      <c r="H89" s="18" t="s">
-        <v>3365</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>3538</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>3539</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C90" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>2100</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>2200</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>3366</v>
-      </c>
-      <c r="H90" s="18" t="s">
-        <v>3367</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>3540</v>
-      </c>
-      <c r="J90" s="18" t="s">
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C91" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>2201</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>3601</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>3368</v>
-      </c>
-      <c r="I91" s="18" t="s">
-        <v>3542</v>
-      </c>
-      <c r="J91" s="18" t="s">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C92" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>2102</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>2202</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>3340</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>3369</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>3544</v>
-      </c>
-      <c r="J92" s="18" t="s">
-        <v>3545</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C93" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>2203</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>3370</v>
-      </c>
-      <c r="H93" s="18" t="s">
-        <v>3371</v>
-      </c>
-      <c r="I93" s="18" t="s">
-        <v>3546</v>
-      </c>
-      <c r="J93" s="18" t="s">
-        <v>3547</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>2204</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>3372</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>3373</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>3372</v>
-      </c>
-      <c r="J94" s="18" t="s">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C95" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>2105</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>2205</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>3374</v>
-      </c>
-      <c r="H95" s="18" t="s">
-        <v>3375</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>3374</v>
-      </c>
-      <c r="J95" s="18" t="s">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C96" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>2106</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>2206</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>3376</v>
-      </c>
-      <c r="H96" s="18" t="s">
-        <v>3377</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>3550</v>
-      </c>
-      <c r="J96" s="18" t="s">
-        <v>3551</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C97" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>2107</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>2207</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>3378</v>
-      </c>
-      <c r="H97" s="18" t="s">
-        <v>3379</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>3552</v>
-      </c>
-      <c r="J97" s="18" t="s">
-        <v>3553</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C98" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>2108</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>2208</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>3380</v>
-      </c>
-      <c r="H98" s="18" t="s">
-        <v>3381</v>
-      </c>
-      <c r="I98" s="18" t="s">
-        <v>3554</v>
-      </c>
-      <c r="J98" s="18" t="s">
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C99" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>2109</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>2209</v>
-      </c>
-      <c r="G99" s="18" t="s">
-        <v>3382</v>
-      </c>
-      <c r="H99" s="18" t="s">
-        <v>3383</v>
-      </c>
-      <c r="I99" s="18" t="s">
-        <v>3556</v>
-      </c>
-      <c r="J99" s="18" t="s">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C100" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>2110</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>2210</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>3384</v>
-      </c>
-      <c r="H100" s="18" t="s">
-        <v>3385</v>
-      </c>
-      <c r="I100" s="18" t="s">
-        <v>3558</v>
-      </c>
-      <c r="J100" s="18" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C101" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>2111</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>2211</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>3386</v>
-      </c>
-      <c r="H101" s="18" t="s">
-        <v>3387</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>3560</v>
-      </c>
-      <c r="J101" s="18" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="http://ichebnik.ru/slovari/es/hermano"/>
-    <hyperlink ref="H3" r:id="rId2" display="http://ichebnik.ru/slovari/es/hermana"/>
-    <hyperlink ref="H4" r:id="rId3" display="http://ichebnik.ru/slovari/es/abuelo"/>
-    <hyperlink ref="H9" r:id="rId4" display="http://ichebnik.ru/slovari/es/elefante"/>
-    <hyperlink ref="H10" r:id="rId5" display="http://ichebnik.ru/slovari/es/cebra"/>
-    <hyperlink ref="H12" r:id="rId6" display="http://ichebnik.ru/slovari/es/jirafa"/>
-    <hyperlink ref="H13" r:id="rId7" display="http://ichebnik.ru/slovari/es/ciervo"/>
-    <hyperlink ref="H18" r:id="rId8" display="http://ichebnik.ru/slovari/es/ardilla"/>
-    <hyperlink ref="H19" r:id="rId9" display="http://ichebnik.ru/slovari/es/marr%c3%b3n"/>
-    <hyperlink ref="H20" r:id="rId10" display="http://ichebnik.ru/slovari/es/violeta"/>
-    <hyperlink ref="H21" r:id="rId11" display="http://ichebnik.ru/slovari/es/amarillo"/>
-    <hyperlink ref="H22" r:id="rId12" display="http://ichebnik.ru/slovari/es/blanco"/>
-    <hyperlink ref="H23" r:id="rId13" display="http://ichebnik.ru/slovari/es/morado"/>
-    <hyperlink ref="H25" r:id="rId14" display="http://ichebnik.ru/slovari/es/sem%c3%a1foro"/>
-    <hyperlink ref="H26" r:id="rId15" display="http://ichebnik.ru/slovari/es/puente"/>
-    <hyperlink ref="H37" r:id="rId16" display="http://ichebnik.ru/slovari/es/invierno"/>
-    <hyperlink ref="H38" r:id="rId17" display="http://ichebnik.ru/slovari/es/verano"/>
-    <hyperlink ref="H39" r:id="rId18" display="http://ichebnik.ru/slovari/es/primavera"/>
-    <hyperlink ref="H71" r:id="rId19" display="http://ichebnik.ru/slovari/es/hombro"/>
-    <hyperlink ref="H72" r:id="rId20" display="http://ichebnik.ru/slovari/es/mejilla"/>
-    <hyperlink ref="H73" r:id="rId21" display="http://ichebnik.ru/slovari/es/rodilla"/>
-    <hyperlink ref="H81" r:id="rId22" display="http://ichebnik.ru/slovari/es/pescado"/>
-    <hyperlink ref="H82" r:id="rId23" display="http://ichebnik.ru/slovari/es/az%c3%bacar"/>
-    <hyperlink ref="H100" r:id="rId24" display="http://ichebnik.ru/slovari/es/monta%c3%b1a"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19638,7 +16353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
@@ -22827,7 +19542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U101"/>
   <sheetViews>
@@ -26103,11 +22818,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -29381,4 +26096,3289 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3633</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>3635</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>3636</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>3637</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>3638</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>3194</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>3195</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>3388</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>2113</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>3196</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>3197</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>3390</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>2114</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>3198</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>3199</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>3392</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>2115</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>3201</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>3394</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>2116</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>3202</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>3203</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>3202</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3204</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>3205</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>3397</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>2018</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>2118</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>3206</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>3207</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>3206</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>3209</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>3208</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>3210</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>2854</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>3401</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>2121</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>3211</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>3212</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>3403</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>2122</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>3213</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>3214</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>3405</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3215</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>3216</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>3407</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>3217</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>3218</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>3409</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>3219</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>3220</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>3221</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>3222</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>3221</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>3223</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>3224</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>3223</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>3225</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>3226</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>3414</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>3227</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>3228</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>3416</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>3229</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>3230</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>3418</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>3231</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>3232</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>3420</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>2132</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>3233</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>3234</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>3422</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>2133</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>3236</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>3238</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>3426</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>2135</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>3239</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>2195</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>3428</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>3240</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>3241</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>3430</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>3242</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>3243</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>3242</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>3244</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>3245</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>3433</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>3246</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>3247</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>3246</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>3248</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>3249</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>3435</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>3250</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>3251</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>3437</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>3252</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>3254</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>3255</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>3439</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>3256</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>3441</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>3258</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>3259</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>3443</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>3261</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>3446</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>3264</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>3265</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>3448</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>3266</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>3267</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>3266</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>3268</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>3269</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>3451</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>3270</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>3271</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>3453</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>3272</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>3273</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>3455</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>3274</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>3275</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>3274</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>3276</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>3277</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>3458</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>3278</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>3279</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>3460</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>3280</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>3281</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>3280</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>3282</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>3283</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>3463</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>3284</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>3285</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>3284</v>
+      </c>
+      <c r="J48" s="18" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>3286</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>3287</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>3466</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>2160</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>3288</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>3468</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>3290</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>3291</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>3290</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>3292</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>3293</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>3471</v>
+      </c>
+      <c r="J52" s="18" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>3294</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>3295</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>3473</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>3296</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>3297</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>3475</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>3298</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>3299</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>3477</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>3300</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>3301</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>3302</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>3303</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>3481</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>3304</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>3483</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>3306</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>3307</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>3485</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>3308</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>3309</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>3487</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>3310</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>3311</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>3489</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>3312</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>3313</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>3491</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>3314</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>3493</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>3316</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>3316</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>3318</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>3318</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>3497</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>3322</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>3323</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>3499</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>3324</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>3325</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>3324</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>3326</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>3327</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>3326</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>3328</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>3502</v>
+      </c>
+      <c r="J70" s="18" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>3330</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>3504</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>2082</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>3332</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>3333</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>3505</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C73" s="46" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>3334</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>3335</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>3507</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C74" s="46" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>3336</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>3337</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>3509</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>3511</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>3341</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>3513</v>
+      </c>
+      <c r="J76" s="18" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C77" s="46" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>3342</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>3514</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>3344</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>3516</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>3346</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>3518</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C80" s="46" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>3348</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>3520</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C81" s="46" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>3351</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>3522</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C82" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>3352</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>3353</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>3524</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C83" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>3354</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>3526</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>3356</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>3357</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>3528</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>3599</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>3358</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>3530</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>3359</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>3532</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>3360</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>3361</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>3534</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>3362</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>3363</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>3536</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>3365</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>3538</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C90" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>3366</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>3367</v>
+      </c>
+      <c r="I90" s="18" t="s">
+        <v>3540</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>3601</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>3368</v>
+      </c>
+      <c r="I91" s="18" t="s">
+        <v>3542</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>3369</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>3544</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>3370</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>3371</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>3546</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C94" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>3372</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>3373</v>
+      </c>
+      <c r="I94" s="18" t="s">
+        <v>3372</v>
+      </c>
+      <c r="J94" s="18" t="s">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C95" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>3374</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>3375</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>3374</v>
+      </c>
+      <c r="J95" s="18" t="s">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>2206</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>3376</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>3550</v>
+      </c>
+      <c r="J96" s="18" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>3378</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>3379</v>
+      </c>
+      <c r="I97" s="18" t="s">
+        <v>3552</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C98" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>2208</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>3380</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>3381</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>3554</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>2209</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>3382</v>
+      </c>
+      <c r="H99" s="18" t="s">
+        <v>3383</v>
+      </c>
+      <c r="I99" s="18" t="s">
+        <v>3556</v>
+      </c>
+      <c r="J99" s="18" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>3384</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>3385</v>
+      </c>
+      <c r="I100" s="18" t="s">
+        <v>3558</v>
+      </c>
+      <c r="J100" s="18" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>3386</v>
+      </c>
+      <c r="H101" s="18" t="s">
+        <v>3387</v>
+      </c>
+      <c r="I101" s="18" t="s">
+        <v>3560</v>
+      </c>
+      <c r="J101" s="18" t="s">
+        <v>3561</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="http://ichebnik.ru/slovari/es/hermano"/>
+    <hyperlink ref="H3" r:id="rId2" display="http://ichebnik.ru/slovari/es/hermana"/>
+    <hyperlink ref="H4" r:id="rId3" display="http://ichebnik.ru/slovari/es/abuelo"/>
+    <hyperlink ref="H9" r:id="rId4" display="http://ichebnik.ru/slovari/es/elefante"/>
+    <hyperlink ref="H10" r:id="rId5" display="http://ichebnik.ru/slovari/es/cebra"/>
+    <hyperlink ref="H12" r:id="rId6" display="http://ichebnik.ru/slovari/es/jirafa"/>
+    <hyperlink ref="H13" r:id="rId7" display="http://ichebnik.ru/slovari/es/ciervo"/>
+    <hyperlink ref="H18" r:id="rId8" display="http://ichebnik.ru/slovari/es/ardilla"/>
+    <hyperlink ref="H19" r:id="rId9" display="http://ichebnik.ru/slovari/es/marr%c3%b3n"/>
+    <hyperlink ref="H20" r:id="rId10" display="http://ichebnik.ru/slovari/es/violeta"/>
+    <hyperlink ref="H21" r:id="rId11" display="http://ichebnik.ru/slovari/es/amarillo"/>
+    <hyperlink ref="H22" r:id="rId12" display="http://ichebnik.ru/slovari/es/blanco"/>
+    <hyperlink ref="H23" r:id="rId13" display="http://ichebnik.ru/slovari/es/morado"/>
+    <hyperlink ref="H25" r:id="rId14" display="http://ichebnik.ru/slovari/es/sem%c3%a1foro"/>
+    <hyperlink ref="H26" r:id="rId15" display="http://ichebnik.ru/slovari/es/puente"/>
+    <hyperlink ref="H37" r:id="rId16" display="http://ichebnik.ru/slovari/es/invierno"/>
+    <hyperlink ref="H38" r:id="rId17" display="http://ichebnik.ru/slovari/es/verano"/>
+    <hyperlink ref="H39" r:id="rId18" display="http://ichebnik.ru/slovari/es/primavera"/>
+    <hyperlink ref="H71" r:id="rId19" display="http://ichebnik.ru/slovari/es/hombro"/>
+    <hyperlink ref="H72" r:id="rId20" display="http://ichebnik.ru/slovari/es/mejilla"/>
+    <hyperlink ref="H73" r:id="rId21" display="http://ichebnik.ru/slovari/es/rodilla"/>
+    <hyperlink ref="H81" r:id="rId22" display="http://ichebnik.ru/slovari/es/pescado"/>
+    <hyperlink ref="H82" r:id="rId23" display="http://ichebnik.ru/slovari/es/az%c3%bacar"/>
+    <hyperlink ref="H100" r:id="rId24" display="http://ichebnik.ru/slovari/es/monta%c3%b1a"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+</worksheet>
 </file>